--- a/data/PE_placebo_t_test.xlsx
+++ b/data/PE_placebo_t_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladimirk/repositories/CUHK-Metabolomics-analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F3738D-D75E-4D1B-86C9-C84A1F29C27C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D074E32-E856-3548-992F-AED4A8AE1064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1_trimester" sheetId="1" r:id="rId1"/>
@@ -1294,27 +1294,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1335,9 +1333,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1375,9 +1373,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1410,9 +1408,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1445,9 +1460,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1623,789 +1655,788 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.1328125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.40625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="30.40625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.81640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="20.7265625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="29.1328125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="32" style="3" customWidth="1"/>
-    <col min="9" max="9" width="22.40625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="16.7265625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="21.40625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="15.40625" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="8.7265625" style="3"/>
+    <col min="1" max="1" width="13.1640625" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="29.1640625" customWidth="1"/>
+    <col min="8" max="8" width="32" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" customWidth="1"/>
+    <col min="11" max="11" width="21.33203125" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:13" s="7" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A2" s="3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>100000008</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2">
         <v>-2.172639682673787</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2">
         <v>3.281496975448758</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2">
         <v>-1.114905171656388</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" t="s">
         <v>318</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" t="s">
         <v>319</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" t="s">
         <v>320</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A3" s="3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>100001092</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3">
         <v>-2.8803080439068349</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3">
         <v>4.9413031682365904</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3">
         <v>-1.0239256681370259</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" t="s">
         <v>301</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" t="s">
         <v>301</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A4" s="3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>100000007</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>-2.484988571507404</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4">
         <v>3.9867774111937528</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4">
         <v>-0.7649716666676547</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" t="s">
         <v>312</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" t="s">
         <v>313</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" t="s">
         <v>304</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A5" s="3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>926</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>-2.1956596809605262</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5">
         <v>3.331844949580451</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5">
         <v>-0.73886436476026174</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" t="s">
         <v>311</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" t="s">
         <v>316</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" t="s">
         <v>317</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" t="s">
         <v>54</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A6" s="3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>100001055</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>-2.1559615795046199</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6">
         <v>3.245189102575202</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6">
         <v>-0.70802784858879775</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" t="s">
         <v>311</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" t="s">
         <v>316</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" t="s">
         <v>321</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" t="s">
         <v>63</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A7" s="3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>100000010</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>-2.4434925209446789</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7">
         <v>3.89042273093099</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7">
         <v>-0.65894764363478742</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" t="s">
         <v>314</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" t="s">
         <v>305</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" t="s">
         <v>305</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" t="s">
         <v>41</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A8" s="3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>100004523</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>-2.3476428269148641</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8">
         <v>3.670890840907564</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8">
         <v>-0.65656624719048085</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" t="s">
         <v>309</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" t="s">
         <v>310</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" t="s">
         <v>315</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" t="s">
         <v>47</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="M8" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A9" s="3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>999911315</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>-3.0040610848538192</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9">
         <v>5.2524700981232284</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9">
         <v>-0.64150164904730622</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A10" s="3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>100002927</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10">
         <v>-2.2660579077433578</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10">
         <v>3.4874750351845019</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10">
         <v>-0.61259369615303805</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" t="s">
         <v>309</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" t="s">
         <v>310</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" t="s">
         <v>300</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" t="s">
         <v>51</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="L10" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A11" s="3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>1023</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11">
         <v>-2.794108320430944</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11">
         <v>4.7278482425024233</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11">
         <v>-0.55267989378596871</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" t="s">
         <v>309</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" t="s">
         <v>310</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" t="s">
         <v>300</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="L11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="6" t="s">
+      <c r="M11" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A12" s="3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>340</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12">
         <v>-2.7266851533013741</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12">
         <v>4.5628701082019267</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12">
         <v>-0.5349984506960318</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" t="s">
         <v>309</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" t="s">
         <v>310</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" t="s">
         <v>300</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="L12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M12" s="6" t="s">
+      <c r="M12" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A13" s="3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>100001034</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13">
         <v>-2.077141410222989</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13">
         <v>3.0755556495674079</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13">
         <v>-0.52884094356942113</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" t="s">
         <v>325</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" t="s">
         <v>326</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" t="s">
         <v>327</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" t="s">
         <v>72</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="L13" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="M13" s="6" t="s">
+      <c r="M13" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A14" s="3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>100004635</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14">
         <v>-2.1021610013352201</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14">
         <v>3.1290487881643219</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14">
         <v>-0.52527678506557662</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" t="s">
         <v>69</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" t="s">
         <v>309</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" t="s">
         <v>310</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" t="s">
         <v>324</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" t="s">
         <v>69</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="L14" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A15" s="3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>275</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15">
         <v>-2.68762360564667</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15">
         <v>4.4681134681346064</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15">
         <v>-0.51004875750515222</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" t="s">
         <v>309</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" t="s">
         <v>310</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" t="s">
         <v>302</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" t="s">
         <v>29</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="L15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M15" s="6" t="s">
+      <c r="M15" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A16" s="3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>999912100</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16">
         <v>-2.3606576103007968</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16">
         <v>3.700446580918789</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16">
         <v>-0.49854075226274192</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A17" s="3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>100000900</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17">
         <v>-3.1697615559688739</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17">
         <v>5.6772058087615731</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17">
         <v>-0.44782732541386178</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" t="s">
         <v>309</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" t="s">
         <v>310</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" t="s">
         <v>300</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" t="s">
         <v>12</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="L17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M17" s="6" t="s">
+      <c r="M17" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A18" s="3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>100001662</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18">
         <v>-2.6373165530153968</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18">
         <v>4.346991599187076</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18">
         <v>-0.43086623480655628</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" t="s">
         <v>34</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" t="s">
         <v>311</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" t="s">
         <v>311</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" t="s">
         <v>303</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" t="s">
         <v>34</v>
       </c>
-      <c r="L18" s="6" t="s">
+      <c r="L18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="M18" s="6" t="s">
+      <c r="M18" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A19" s="3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>100002227</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19">
         <v>-2.1254585675449138</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19">
         <v>3.1791564571338</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19">
         <v>-0.38268644333777663</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" t="s">
         <v>65</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" t="s">
         <v>66</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" t="s">
         <v>311</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" t="s">
         <v>322</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" t="s">
         <v>323</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K19" t="s">
         <v>66</v>
       </c>
-      <c r="L19" s="6" t="s">
+      <c r="L19" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="M19" s="6" t="s">
+      <c r="M19" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A20" s="3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>100002026</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20">
         <v>2.1730730255054782</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20">
         <v>3.2824422572296141</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20">
         <v>0.21747093043796159</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" t="s">
         <v>58</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="K20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A21" s="3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>100015625</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21">
         <v>2.399165381853833</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21">
         <v>3.788363925892587</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21">
         <v>0.45162601430179811</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" t="s">
         <v>45</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="K21" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2457,1174 +2488,1152 @@
       <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" customWidth="1"/>
-    <col min="2" max="3" width="12.54296875" customWidth="1"/>
-    <col min="4" max="4" width="18.1328125" customWidth="1"/>
-    <col min="5" max="5" width="16.7265625" customWidth="1"/>
-    <col min="6" max="6" width="15.40625" customWidth="1"/>
-    <col min="7" max="7" width="21.40625" customWidth="1"/>
-    <col min="8" max="8" width="28.26953125" customWidth="1"/>
-    <col min="9" max="9" width="14.26953125" customWidth="1"/>
-    <col min="10" max="10" width="16.86328125" customWidth="1"/>
-    <col min="11" max="14" width="14.26953125" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" customWidth="1"/>
+    <col min="8" max="8" width="28.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" customWidth="1"/>
+    <col min="11" max="14" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="29.5" x14ac:dyDescent="0.75">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A2" s="3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>231</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2">
         <v>-2.2510170820315358</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2">
         <v>3.5530212280986309</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2">
         <v>-0.93249212810402693</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" t="s">
         <v>115</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" t="s">
         <v>309</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" t="s">
         <v>310</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" t="s">
         <v>310</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" t="s">
         <v>115</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A3" s="3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>100001755</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3">
         <v>-3.058716944015984</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3">
         <v>5.652466927924352</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3">
         <v>-0.71522278997664368</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" t="s">
         <v>75</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" t="s">
         <v>309</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" t="s">
         <v>328</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" t="s">
         <v>329</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" t="s">
         <v>75</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A4" s="3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>999924295</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>-2.0947468438114911</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4">
         <v>3.1921614086292469</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4">
         <v>-0.71085356252336218</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A5" s="3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>100000007</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>-2.954651985032601</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5">
         <v>5.3615438517869389</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5">
         <v>-0.68191631422525001</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" t="s">
         <v>312</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" t="s">
         <v>313</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" t="s">
         <v>304</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" t="s">
         <v>37</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A6" s="3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>100001778</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>-2.0847228446038759</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6">
         <v>3.16955412159753</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6">
         <v>-0.57916549171759224</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" t="s">
         <v>145</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" t="s">
         <v>146</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" t="s">
         <v>311</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" t="s">
         <v>339</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" t="s">
         <v>355</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" t="s">
         <v>147</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A7" s="3">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>338</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>-2.617845316925568</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7">
         <v>4.4599556242017977</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7">
         <v>-0.55791853134050406</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" t="s">
         <v>87</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" t="s">
         <v>330</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" t="s">
         <v>331</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" t="s">
         <v>332</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" t="s">
         <v>87</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A8" s="3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>100001006</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>-2.4903022095300371</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8">
         <v>4.1353898217831109</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8">
         <v>-0.55512090825556826</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" t="s">
         <v>90</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" t="s">
         <v>309</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" t="s">
         <v>310</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" t="s">
         <v>333</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" t="s">
         <v>90</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A9" s="3">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>1239</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>-2.1107355469349529</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9">
         <v>3.228357009254776</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9">
         <v>-0.5376821000770925</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" t="s">
         <v>134</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" t="s">
         <v>135</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" t="s">
         <v>311</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" t="s">
         <v>316</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" t="s">
         <v>354</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" t="s">
         <v>135</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A10" s="3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>100001977</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10">
         <v>-2.3976259642635331</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10">
         <v>3.9056521881965729</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10">
         <v>-0.52452458675165814</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" t="s">
         <v>98</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" t="s">
         <v>99</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" t="s">
         <v>311</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" t="s">
         <v>337</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" t="s">
         <v>338</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" t="s">
         <v>99</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="L10" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="M10" s="6" t="s">
+      <c r="M10" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A11" s="3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>999912100</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11">
         <v>-2.042743813292407</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11">
         <v>3.075595155847922</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11">
         <v>-0.51399585031799411</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A12" s="3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>999923644</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12">
         <v>-2.5013839309224419</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12">
         <v>4.1632076498373127</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12">
         <v>-0.51242267259894092</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A13" s="3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>100000672</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13">
         <v>-2.3040534265087751</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13">
         <v>3.67903681795939</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13">
         <v>-0.46558918752247103</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" t="s">
         <v>108</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" t="s">
         <v>109</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" t="s">
         <v>311</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" t="s">
         <v>339</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" t="s">
         <v>344</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" t="s">
         <v>109</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="L13" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A14" s="3">
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>100000039</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14">
         <v>-2.8440006494926791</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14">
         <v>5.0584593528877697</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14">
         <v>-0.42365202870311702</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" t="s">
         <v>83</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" t="s">
         <v>309</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" t="s">
         <v>310</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" t="s">
         <v>324</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" t="s">
         <v>83</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="L14" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="M14" s="6" t="s">
+      <c r="M14" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A15" s="3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>565</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15">
         <v>-2.235429283684327</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15">
         <v>3.516322385461947</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15">
         <v>-0.38571110684961518</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" t="s">
         <v>71</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" t="s">
         <v>118</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" t="s">
         <v>325</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" t="s">
         <v>326</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" t="s">
         <v>346</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" t="s">
         <v>118</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="L15" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="M15" s="6" t="s">
+      <c r="M15" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A16" s="3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>100001743</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16">
         <v>-2.0963574952920911</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16">
         <v>3.1958000711023922</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16">
         <v>-0.36530466366887843</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" t="s">
         <v>140</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" t="s">
         <v>309</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" t="s">
         <v>310</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" t="s">
         <v>324</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" t="s">
         <v>140</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="L16" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="M16" s="6" t="s">
+      <c r="M16" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A17" s="3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>100002528</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17">
         <v>-2.3565034795398909</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17">
         <v>3.805392806513308</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17">
         <v>-0.36319874046231571</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" t="s">
         <v>105</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" t="s">
         <v>341</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" t="s">
         <v>342</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" t="s">
         <v>343</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" t="s">
         <v>105</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="L17" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="M17" s="6" t="s">
+      <c r="M17" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A18" s="3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>100020276</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18">
         <v>-2.1332982279080919</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18">
         <v>3.279718518676852</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18">
         <v>-0.35174820663900003</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" t="s">
         <v>132</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" t="s">
         <v>133</v>
       </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3" t="s">
+      <c r="K18" t="s">
         <v>133</v>
       </c>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A19" s="3">
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>460</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19">
         <v>-2.2303942033446762</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19">
         <v>3.5045011346505892</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19">
         <v>-0.27725356841539039</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" t="s">
         <v>121</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" t="s">
         <v>122</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" t="s">
         <v>309</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" t="s">
         <v>310</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" t="s">
         <v>347</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K19" t="s">
         <v>122</v>
       </c>
-      <c r="L19" s="6" t="s">
+      <c r="L19" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="M19" s="6" t="s">
+      <c r="M19" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A20" s="3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>100001279</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20">
         <v>2.2555336458395958</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20">
         <v>3.5636835189107612</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20">
         <v>0.33506739932116891</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" t="s">
         <v>111</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" t="s">
         <v>112</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" t="s">
         <v>311</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" t="s">
         <v>322</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" t="s">
         <v>345</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="K20" t="s">
         <v>112</v>
       </c>
-      <c r="L20" s="6" t="s">
+      <c r="L20" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="M20" s="6" t="s">
+      <c r="M20" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A21" s="3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>999916397</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21">
         <v>2.1502051399842821</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21">
         <v>3.3184220554676949</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21">
         <v>0.36734483352455211</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A22" s="3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>100015745</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22">
         <v>2.2007709280244732</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22">
         <v>3.435279673851825</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22">
         <v>0.40536107591510961</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" t="s">
         <v>44</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" t="s">
         <v>125</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" t="s">
         <v>311</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" t="s">
         <v>348</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" t="s">
         <v>349</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K22" t="s">
         <v>125</v>
       </c>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A23" s="3">
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>100000743</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23">
         <v>2.1083307488570329</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23">
         <v>3.222902303759728</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23">
         <v>0.41392721619415268</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" t="s">
         <v>134</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" t="s">
         <v>138</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" t="s">
         <v>311</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" t="s">
         <v>316</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="J23" t="s">
         <v>317</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="K23" t="s">
         <v>138</v>
       </c>
-      <c r="L23" s="6" t="s">
+      <c r="L23" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A24" s="3">
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>100015836</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24">
         <v>2.021060207345124</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24">
         <v>3.0275176154346868</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24">
         <v>0.41397000184614557</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" t="s">
         <v>149</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" t="s">
         <v>150</v>
       </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3" t="s">
+      <c r="K24" t="s">
         <v>150</v>
       </c>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A25" s="3">
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>512</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25">
         <v>2.1754217769555231</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25">
         <v>3.3764919165290519</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25">
         <v>0.42880699752432427</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" t="s">
         <v>50</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" t="s">
         <v>126</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" t="s">
         <v>309</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I25" t="s">
         <v>350</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="J25" t="s">
         <v>351</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="K25" t="s">
         <v>126</v>
       </c>
-      <c r="L25" s="6" t="s">
+      <c r="L25" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="M25" s="6" t="s">
+      <c r="M25" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A26" s="3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>100009014</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26">
         <v>2.3737877223606958</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26">
         <v>3.84740596450203</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26">
         <v>0.54865117828346777</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" t="s">
         <v>102</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" t="s">
         <v>103</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" t="s">
         <v>311</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="I26" t="s">
         <v>339</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="J26" t="s">
         <v>340</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="K26" t="s">
         <v>103</v>
       </c>
-      <c r="L26" s="6" t="s">
+      <c r="L26" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A27" s="3">
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>132</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27">
         <v>2.9655849486043131</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27">
         <v>5.3918434532553992</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27">
         <v>0.61239215128059366</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" t="s">
         <v>78</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" t="s">
         <v>79</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" t="s">
         <v>80</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" t="s">
         <v>330</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="I27" t="s">
         <v>331</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="J27" t="s">
         <v>332</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="K27" t="s">
         <v>80</v>
       </c>
-      <c r="L27" s="6" t="s">
+      <c r="L27" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="M27" s="6" t="s">
+      <c r="M27" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A28" s="3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>209</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28">
         <v>2.4654257164855871</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28">
         <v>4.0732122393223733</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28">
         <v>0.63531350146268406</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" t="s">
         <v>92</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" t="s">
         <v>93</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" t="s">
         <v>94</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" t="s">
         <v>334</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="I28" t="s">
         <v>335</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="J28" t="s">
         <v>336</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="K28" t="s">
         <v>95</v>
       </c>
-      <c r="L28" s="6" t="s">
+      <c r="L28" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="M28" s="6" t="s">
+      <c r="M28" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A29" s="3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>1224</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29">
         <v>2.084970400163936</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29">
         <v>3.1701116448284958</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29">
         <v>0.63645738965131948</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" t="s">
         <v>143</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" t="s">
         <v>144</v>
       </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3" t="s">
+      <c r="K29" t="s">
         <v>144</v>
       </c>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.75">
-      <c r="A30" s="3">
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>999921796</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30">
         <v>2.1622514641440471</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30">
         <v>3.3461115839205382</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30">
         <v>0.7151799447174898</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A31" s="3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>1021</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31">
         <v>2.00802800728977</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31">
         <v>2.998772207782809</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31">
         <v>0.71591112370075582</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" t="s">
         <v>143</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" t="s">
         <v>151</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H31" t="s">
         <v>309</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="I31" t="s">
         <v>310</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="J31" t="s">
         <v>302</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="K31" t="s">
         <v>151</v>
       </c>
-      <c r="L31" s="6" t="s">
+      <c r="L31" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="M31" s="3" t="s">
+      <c r="M31" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A32" s="3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>482</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32">
         <v>2.171933657521087</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32">
         <v>3.3684348857313622</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32">
         <v>0.91428520290801019</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" t="s">
         <v>78</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" t="s">
         <v>79</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" t="s">
         <v>129</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H32" t="s">
         <v>309</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="I32" t="s">
         <v>352</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="J32" t="s">
         <v>353</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="K32" t="s">
         <v>129</v>
       </c>
-      <c r="L32" s="6" t="s">
+      <c r="L32" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="M32" s="6" t="s">
+      <c r="M32" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="12:13" x14ac:dyDescent="0.75">
+    <row r="33" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
     </row>
-    <row r="34" spans="12:13" x14ac:dyDescent="0.75">
+    <row r="34" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
     </row>
-    <row r="35" spans="12:13" x14ac:dyDescent="0.75">
+    <row r="35" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
     </row>
-    <row r="36" spans="12:13" x14ac:dyDescent="0.75">
+    <row r="36" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
     </row>
-    <row r="37" spans="12:13" x14ac:dyDescent="0.75">
+    <row r="37" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
     </row>
-    <row r="38" spans="12:13" x14ac:dyDescent="0.75">
+    <row r="38" spans="12:13" x14ac:dyDescent="0.2">
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
     </row>
@@ -3676,2250 +3685,2137 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F68" sqref="A68:XFD132"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.86328125" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
-    <col min="4" max="4" width="14.86328125" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" customWidth="1"/>
-    <col min="6" max="6" width="30.7265625" customWidth="1"/>
-    <col min="7" max="7" width="27.86328125" customWidth="1"/>
-    <col min="8" max="8" width="30.1328125" customWidth="1"/>
-    <col min="9" max="9" width="31.40625" customWidth="1"/>
-    <col min="10" max="10" width="14.7265625" customWidth="1"/>
-    <col min="11" max="11" width="12.26953125" customWidth="1"/>
-    <col min="12" max="12" width="14.1328125" customWidth="1"/>
-    <col min="13" max="13" width="12.26953125" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" customWidth="1"/>
+    <col min="7" max="7" width="27.83203125" customWidth="1"/>
+    <col min="8" max="8" width="30.1640625" customWidth="1"/>
+    <col min="9" max="9" width="31.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.1640625" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="44.25" x14ac:dyDescent="0.75">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A2" s="3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>100000841</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2">
         <v>-2.4700539893506588</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2">
         <v>4.0722660437909273</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2">
         <v>-0.81006814253232928</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" t="s">
         <v>212</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" t="s">
         <v>213</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" t="s">
         <v>309</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" t="s">
         <v>310</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" t="s">
         <v>372</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" t="s">
         <v>213</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A3" s="3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>1052</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3">
         <v>-2.1012482097881908</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3">
         <v>3.1994330154813602</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3">
         <v>-0.53151501815589075</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" t="s">
         <v>79</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" t="s">
         <v>272</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" t="s">
         <v>330</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" t="s">
         <v>331</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" t="s">
         <v>332</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" t="s">
         <v>272</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" t="s">
         <v>273</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="2" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A4" s="3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>100003271</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>2.0939753216227439</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4">
         <v>3.183074310221949</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4">
         <v>0.36305666521017821</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>168</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>275</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3" t="s">
+      <c r="K4" t="s">
         <v>275</v>
       </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A5" s="3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>100001485</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>2.9909315535434811</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5">
         <v>5.4390901377670309</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5">
         <v>0.38309461908065823</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" t="s">
         <v>160</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" t="s">
         <v>161</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" t="s">
         <v>177</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" t="s">
         <v>309</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" t="s">
         <v>310</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" t="s">
         <v>360</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" t="s">
         <v>177</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="L5" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A6" s="3">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>100006430</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>2.3820082434748082</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6">
         <v>3.8563489261136561</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6">
         <v>0.43550408372663701</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" t="s">
         <v>78</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" t="s">
         <v>226</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" t="s">
         <v>227</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" t="s">
         <v>330</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" t="s">
         <v>331</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" t="s">
         <v>377</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" t="s">
         <v>227</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" t="s">
         <v>228</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A7" s="3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>460</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>2.0970885747368269</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7">
         <v>3.190072709903387</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7">
         <v>0.45301292195140269</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" t="s">
         <v>121</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" t="s">
         <v>122</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" t="s">
         <v>309</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" t="s">
         <v>310</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" t="s">
         <v>347</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" t="s">
         <v>122</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A8" s="3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>100006435</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>2.0717811996978002</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8">
         <v>3.1333638394413241</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8">
         <v>0.48727004083891118</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" t="s">
         <v>277</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" t="s">
         <v>278</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" t="s">
         <v>330</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" t="s">
         <v>331</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" t="s">
         <v>386</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" t="s">
         <v>278</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" t="s">
         <v>279</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="M8" s="2" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A9" s="3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>100000054</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>2.3044785477676522</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9">
         <v>3.670074077083211</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9">
         <v>0.50023717105887977</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" t="s">
         <v>198</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" t="s">
         <v>238</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" t="s">
         <v>309</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" t="s">
         <v>310</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" t="s">
         <v>324</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" t="s">
         <v>238</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="M9" s="2" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A10" s="3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>1268</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10">
         <v>3.0058686802295131</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10">
         <v>5.4804065442649899</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10">
         <v>0.50222033159058976</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" t="s">
         <v>160</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" t="s">
         <v>161</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" t="s">
         <v>175</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" t="s">
         <v>309</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" t="s">
         <v>310</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" t="s">
         <v>360</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" t="s">
         <v>175</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="L10" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A11" s="3">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>999912844</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11">
         <v>2.241302917929918</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11">
         <v>3.5210057437842739</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11">
         <v>0.51425364095017811</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A12" s="3">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>503</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12">
         <v>2.3884555842299151</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12">
         <v>3.8720031177944652</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12">
         <v>0.51436014910176908</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" t="s">
         <v>223</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" t="s">
         <v>309</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" t="s">
         <v>310</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" t="s">
         <v>376</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" t="s">
         <v>223</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="L12" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="M12" s="6" t="s">
+      <c r="M12" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A13" s="3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>1102</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13">
         <v>2.2645350489418998</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13">
         <v>3.5755374376035922</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13">
         <v>0.59099211379564287</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" t="s">
         <v>160</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" t="s">
         <v>161</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" t="s">
         <v>241</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" t="s">
         <v>309</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" t="s">
         <v>310</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" t="s">
         <v>365</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" t="s">
         <v>241</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="L13" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A14" s="3">
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>407</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14">
         <v>2.3150206539230518</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14">
         <v>3.6951880785382469</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14">
         <v>0.60414966012654447</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" t="s">
         <v>198</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" t="s">
         <v>235</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" t="s">
         <v>309</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" t="s">
         <v>310</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" t="s">
         <v>380</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" t="s">
         <v>235</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="L14" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A15" s="3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>100006294</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15">
         <v>2.0426887896931358</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15">
         <v>3.0686839209893551</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15">
         <v>0.62239677680081407</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" t="s">
         <v>132</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" t="s">
         <v>293</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" t="s">
         <v>389</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" t="s">
         <v>348</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" t="s">
         <v>390</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" t="s">
         <v>293</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="L15" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A16" s="3">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>1539</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16">
         <v>2.2617704443208781</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16">
         <v>3.569030681358027</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16">
         <v>0.64291974072552738</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" t="s">
         <v>108</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" t="s">
         <v>246</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" t="s">
         <v>311</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" t="s">
         <v>339</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" t="s">
         <v>344</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" t="s">
         <v>246</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="L16" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="M16" s="6" t="s">
+      <c r="M16" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A17" s="3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>98</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17">
         <v>2.431828314129759</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17">
         <v>3.977958601521189</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17">
         <v>0.65757202174753415</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" t="s">
         <v>71</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" t="s">
         <v>216</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" t="s">
         <v>325</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" t="s">
         <v>373</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" t="s">
         <v>374</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" t="s">
         <v>216</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="L17" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="M17" s="6" t="s">
+      <c r="M17" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A18" s="3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>999912411</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18">
         <v>2.1966761173046101</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18">
         <v>3.4171981822699111</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18">
         <v>0.66122427817900475</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A19" s="3">
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>999915486</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19">
         <v>2.0245693775997511</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19">
         <v>3.0286770725109209</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19">
         <v>0.66210854678772724</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A20" s="3">
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>100003470</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20">
         <v>2.1078914680217591</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20">
         <v>3.2144051446746951</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20">
         <v>0.69189802353831886</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" t="s">
         <v>269</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" t="s">
         <v>270</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" t="s">
         <v>311</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" t="s">
         <v>322</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" t="s">
         <v>385</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="K20" t="s">
         <v>270</v>
       </c>
-      <c r="L20" s="6" t="s">
+      <c r="L20" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A21" s="3">
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>100001654</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21">
         <v>2.336006481610541</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21">
         <v>3.7453836470484339</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21">
         <v>0.70241329759540994</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" t="s">
         <v>145</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" t="s">
         <v>233</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" t="s">
         <v>311</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" t="s">
         <v>339</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="J21" t="s">
         <v>364</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="K21" t="s">
         <v>233</v>
       </c>
-      <c r="L21" s="6" t="s">
+      <c r="L21" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A22" s="3">
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>999914056</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22">
         <v>2.2202490616173951</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22">
         <v>3.4718767809632758</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22">
         <v>0.71019910476103254</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A23" s="3">
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>100001810</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23">
         <v>2.706251008205653</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23">
         <v>4.6736907638514102</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23">
         <v>0.72812529662086756</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" t="s">
         <v>46</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" t="s">
         <v>188</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" t="s">
         <v>309</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" t="s">
         <v>362</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="J23" t="s">
         <v>363</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="K23" t="s">
         <v>189</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="L23" t="s">
         <v>190</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="M23" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A24" s="3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>100001571</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24">
         <v>2.161125753242719</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24">
         <v>3.3353979246174532</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24">
         <v>0.73199075043197936</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" t="s">
         <v>145</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" t="s">
         <v>263</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" t="s">
         <v>311</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" t="s">
         <v>339</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="J24" t="s">
         <v>384</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="K24" t="s">
         <v>263</v>
       </c>
-      <c r="L24" s="6" t="s">
+      <c r="L24" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A25" s="3">
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>192</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25">
         <v>2.0573317960873991</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25">
         <v>3.1011706654245872</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25">
         <v>0.73619031526753786</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" t="s">
         <v>281</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" t="s">
         <v>282</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" t="s">
         <v>309</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I25" t="s">
         <v>381</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="J25" t="s">
         <v>382</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="K25" t="s">
         <v>282</v>
       </c>
-      <c r="L25" s="6" t="s">
+      <c r="L25" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="M25" s="6" t="s">
+      <c r="M25" s="2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A26" s="3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>100020205</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26">
         <v>2.2639772798670208</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26">
         <v>3.5742242951289609</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26">
         <v>0.74024897043283877</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" t="s">
         <v>200</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" t="s">
         <v>243</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" t="s">
         <v>357</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="I26" t="s">
         <v>310</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="J26" t="s">
         <v>324</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="K26" t="s">
         <v>243</v>
       </c>
-      <c r="L26" s="6" t="s">
+      <c r="L26" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="M26" s="6" t="s">
+      <c r="M26" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A27" s="3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>564</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27">
         <v>2.472278678943272</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27">
         <v>4.0777811402446904</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27">
         <v>0.7405623325599503</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" t="s">
         <v>209</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" t="s">
         <v>309</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="I27" t="s">
         <v>310</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="J27" t="s">
         <v>324</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="K27" t="s">
         <v>209</v>
       </c>
-      <c r="L27" s="6" t="s">
+      <c r="L27" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="M27" s="6" t="s">
+      <c r="M27" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A28" s="3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>1518</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28">
         <v>2.0184020816820181</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28">
         <v>3.015108679273693</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28">
         <v>0.7456777506601806</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" t="s">
         <v>32</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" t="s">
         <v>295</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" t="s">
         <v>296</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" t="s">
         <v>311</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="I28" t="s">
         <v>348</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="J28" t="s">
         <v>391</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="K28" t="s">
         <v>296</v>
       </c>
-      <c r="L28" s="6" t="s">
+      <c r="L28" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A29" s="3">
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>100015962</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29">
         <v>2.5983758879976202</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29">
         <v>4.3950781990549173</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29">
         <v>0.75483233120838666</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" t="s">
         <v>198</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" t="s">
         <v>199</v>
       </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3" t="s">
+      <c r="K29" t="s">
         <v>199</v>
       </c>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A30" s="3">
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>100001425</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30">
         <v>2.0437160760370352</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30">
         <v>3.0709585101874342</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30">
         <v>0.7653827457345892</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" t="s">
         <v>92</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" t="s">
         <v>290</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" t="s">
         <v>291</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" t="s">
         <v>330</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="I30" t="s">
         <v>331</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="J30" t="s">
         <v>388</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="K30" t="s">
         <v>291</v>
       </c>
-      <c r="L30" s="6" t="s">
+      <c r="L30" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A31" s="3">
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>100010901</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31">
         <v>3.4287630600438468</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31">
         <v>6.6941317040484982</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31">
         <v>0.78290342910551547</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" t="s">
         <v>160</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" t="s">
         <v>161</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" t="s">
         <v>164</v>
       </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3" t="s">
+      <c r="K31" t="s">
         <v>164</v>
       </c>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A32" s="3">
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>2054</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32">
         <v>2.0129887434612259</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32">
         <v>3.0032194651481809</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32">
         <v>0.79083634085389565</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" t="s">
         <v>20</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" t="s">
         <v>62</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" t="s">
         <v>298</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H32" t="s">
         <v>311</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="I32" t="s">
         <v>316</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="J32" t="s">
         <v>392</v>
       </c>
-      <c r="K32" s="3" t="s">
+      <c r="K32" t="s">
         <v>298</v>
       </c>
-      <c r="L32" s="6" t="s">
+      <c r="L32" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A33" s="3">
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>100001386</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33">
         <v>2.2528673558320351</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33">
         <v>3.548108579082569</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33">
         <v>0.79312802605912192</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" t="s">
         <v>15</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" t="s">
         <v>249</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" t="s">
         <v>250</v>
       </c>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3" t="s">
+      <c r="K33" t="s">
         <v>250</v>
       </c>
-      <c r="L33" s="6" t="s">
+      <c r="L33" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="M33" s="6" t="s">
+      <c r="M33" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A34" s="3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>100010966</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34">
         <v>2.5207622541402439</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34">
         <v>4.1986925712534147</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34">
         <v>0.80020582296397991</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" t="s">
         <v>32</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" t="s">
         <v>102</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G34" t="s">
         <v>207</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H34" t="s">
         <v>311</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="I34" t="s">
         <v>339</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="J34" t="s">
         <v>371</v>
       </c>
-      <c r="K34" s="3" t="s">
+      <c r="K34" t="s">
         <v>207</v>
       </c>
-      <c r="L34" s="6" t="s">
+      <c r="L34" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A35" s="3">
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>100001664</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35">
         <v>2.051032229864088</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35">
         <v>3.0871775242054129</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35">
         <v>0.80175710955848722</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" t="s">
         <v>93</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G35" t="s">
         <v>285</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="H35" t="s">
         <v>334</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="I35" t="s">
         <v>366</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="J35" t="s">
         <v>366</v>
       </c>
-      <c r="K35" s="3" t="s">
+      <c r="K35" t="s">
         <v>285</v>
       </c>
-      <c r="L35" s="6" t="s">
+      <c r="L35" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A36" s="3">
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>100001415</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36">
         <v>2.6506402129711679</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36">
         <v>4.5292515639871134</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36">
         <v>0.84176034178091452</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" t="s">
         <v>92</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" t="s">
         <v>93</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G36" t="s">
         <v>196</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="H36" t="s">
         <v>334</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="I36" t="s">
         <v>366</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="J36" t="s">
         <v>367</v>
       </c>
-      <c r="K36" s="3" t="s">
+      <c r="K36" t="s">
         <v>196</v>
       </c>
-      <c r="L36" s="6" t="s">
+      <c r="L36" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="M36" s="3"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A37" s="3">
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>100001416</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37">
         <v>2.0459354473628228</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37">
         <v>3.0758749177236999</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37">
         <v>0.84265444248575394</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" t="s">
         <v>92</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" t="s">
         <v>287</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="G37" t="s">
         <v>288</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="H37" t="s">
         <v>334</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="I37" t="s">
         <v>387</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="J37" t="s">
         <v>387</v>
       </c>
-      <c r="K37" s="3" t="s">
+      <c r="K37" t="s">
         <v>288</v>
       </c>
-      <c r="L37" s="6" t="s">
+      <c r="L37" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="M37" s="3"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A38" s="3">
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>999917357</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38">
         <v>3.4222888699309131</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38">
         <v>6.6749436567882983</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38">
         <v>0.84995959315374781</v>
       </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A39" s="3">
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>100002500</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39">
         <v>2.1634261536491719</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39">
         <v>3.3406669338102009</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39">
         <v>0.86619799842764633</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" t="s">
         <v>20</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" t="s">
         <v>219</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="G39" t="s">
         <v>260</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="H39" t="s">
         <v>309</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="I39" t="s">
         <v>310</v>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="J39" t="s">
         <v>383</v>
       </c>
-      <c r="K39" s="3" t="s">
+      <c r="K39" t="s">
         <v>260</v>
       </c>
-      <c r="L39" s="6" t="s">
+      <c r="L39" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="M39" s="6" t="s">
+      <c r="M39" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A40" s="3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40">
         <v>811</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40">
         <v>2.5865664881093151</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40">
         <v>4.3649747179764971</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40">
         <v>0.88698861534693618</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" t="s">
         <v>20</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" t="s">
         <v>200</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="G40" t="s">
         <v>201</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="H40" t="s">
         <v>357</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="I40" t="s">
         <v>310</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="J40" t="s">
         <v>368</v>
       </c>
-      <c r="K40" s="3" t="s">
+      <c r="K40" t="s">
         <v>201</v>
       </c>
-      <c r="L40" s="6" t="s">
+      <c r="L40" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="M40" s="6" t="s">
+      <c r="M40" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A41" s="3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41">
         <v>182</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41">
         <v>2.3482106097669782</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41">
         <v>3.774697640822628</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41">
         <v>0.88719322715410731</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" t="s">
         <v>15</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" t="s">
         <v>16</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="G41" t="s">
         <v>230</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="H41" t="s">
         <v>325</v>
       </c>
-      <c r="I41" s="3" t="s">
+      <c r="I41" t="s">
         <v>378</v>
       </c>
-      <c r="J41" s="3" t="s">
+      <c r="J41" t="s">
         <v>379</v>
       </c>
-      <c r="K41" s="3" t="s">
+      <c r="K41" t="s">
         <v>230</v>
       </c>
-      <c r="L41" s="6" t="s">
+      <c r="L41" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="M41" s="6" t="s">
+      <c r="M41" s="2" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A42" s="3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42">
         <v>1489</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42">
         <v>2.1956793524197389</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42">
         <v>3.4148938141456329</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42">
         <v>0.8924230904903806</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" t="s">
         <v>32</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" t="s">
         <v>256</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="G42" t="s">
         <v>257</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="H42" t="s">
         <v>309</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="I42" t="s">
         <v>381</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="J42" t="s">
         <v>382</v>
       </c>
-      <c r="K42" s="3" t="s">
+      <c r="K42" t="s">
         <v>257</v>
       </c>
-      <c r="L42" s="6" t="s">
+      <c r="L42" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="M42" s="6" t="s">
+      <c r="M42" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A43" s="3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43">
         <v>1083</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43">
         <v>2.2413131863801259</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43">
         <v>3.5210297724503312</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43">
         <v>0.90661949563709121</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" t="s">
         <v>20</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" t="s">
         <v>50</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="G43" t="s">
         <v>253</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="H43" t="s">
         <v>309</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="I43" t="s">
         <v>310</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="J43" t="s">
         <v>356</v>
       </c>
-      <c r="K43" s="3" t="s">
+      <c r="K43" t="s">
         <v>253</v>
       </c>
-      <c r="L43" s="6" t="s">
+      <c r="L43" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="M43" s="6" t="s">
+      <c r="M43" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A44" s="3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44">
         <v>100001851</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44">
         <v>2.9043955352768021</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44">
         <v>5.2019486021096268</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44">
         <v>0.93962414219650481</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" t="s">
         <v>20</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F44" t="s">
         <v>21</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="G44" t="s">
         <v>184</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="H44" t="s">
         <v>309</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="I44" t="s">
         <v>310</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="J44" t="s">
         <v>315</v>
       </c>
-      <c r="K44" s="3" t="s">
+      <c r="K44" t="s">
         <v>184</v>
       </c>
-      <c r="L44" s="6" t="s">
+      <c r="L44" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A45" s="3">
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45">
         <v>533</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45">
         <v>2.583756089783487</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45">
         <v>4.3578223762517387</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45">
         <v>0.96967062341491039</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" t="s">
         <v>20</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="F45" t="s">
         <v>46</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="G45" t="s">
         <v>204</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="H45" t="s">
         <v>309</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="I45" t="s">
         <v>369</v>
       </c>
-      <c r="J45" s="3" t="s">
+      <c r="J45" t="s">
         <v>370</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="K45" t="s">
         <v>204</v>
       </c>
-      <c r="L45" s="6" t="s">
+      <c r="L45" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="M45" s="6" t="s">
+      <c r="M45" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A46" s="3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46">
         <v>100000491</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46">
         <v>3.5195833561465162</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46">
         <v>6.9651600462264467</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46">
         <v>0.98515126349549187</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" t="s">
         <v>160</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F46" t="s">
         <v>161</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="G46" t="s">
         <v>162</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="H46" t="s">
         <v>309</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="I46" t="s">
         <v>310</v>
       </c>
-      <c r="J46" s="3" t="s">
+      <c r="J46" t="s">
         <v>347</v>
       </c>
-      <c r="K46" s="3" t="s">
+      <c r="K46" t="s">
         <v>162</v>
       </c>
-      <c r="L46" s="6" t="s">
+      <c r="L46" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A47" s="3">
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47">
         <v>1084</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47">
         <v>2.8846403090744812</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47">
         <v>5.1483496502313288</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47">
         <v>0.99274288699018232</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" t="s">
         <v>20</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F47" t="s">
         <v>62</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="G47" t="s">
         <v>186</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="H47" t="s">
         <v>309</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="I47" t="s">
         <v>310</v>
       </c>
-      <c r="J47" s="3" t="s">
+      <c r="J47" t="s">
         <v>361</v>
       </c>
-      <c r="K47" s="3" t="s">
+      <c r="K47" t="s">
         <v>186</v>
       </c>
-      <c r="L47" s="6" t="s">
+      <c r="L47" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A48" s="3">
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48">
         <v>100001051</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48">
         <v>2.3938845618865612</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48">
         <v>3.885204059188994</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48">
         <v>1.056031030527417</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" t="s">
         <v>20</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F48" t="s">
         <v>219</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="G48" t="s">
         <v>220</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="H48" t="s">
         <v>309</v>
       </c>
-      <c r="I48" s="3" t="s">
+      <c r="I48" t="s">
         <v>310</v>
       </c>
-      <c r="J48" s="3" t="s">
+      <c r="J48" t="s">
         <v>375</v>
       </c>
-      <c r="K48" s="3" t="s">
+      <c r="K48" t="s">
         <v>220</v>
       </c>
-      <c r="L48" s="6" t="s">
+      <c r="L48" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="M48" s="6" t="s">
+      <c r="M48" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A49" s="3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49">
         <v>100001104</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49">
         <v>2.6834568404234558</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49">
         <v>4.6142798554525157</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49">
         <v>1.0571234994494489</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" t="s">
         <v>20</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F49" t="s">
         <v>179</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="G49" t="s">
         <v>194</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="H49" t="s">
         <v>309</v>
       </c>
-      <c r="I49" s="3" t="s">
+      <c r="I49" t="s">
         <v>310</v>
       </c>
-      <c r="J49" s="3" t="s">
+      <c r="J49" t="s">
         <v>365</v>
       </c>
-      <c r="K49" s="3" t="s">
+      <c r="K49" t="s">
         <v>194</v>
       </c>
-      <c r="L49" s="6" t="s">
+      <c r="L49" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A50" s="3">
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50">
         <v>1254</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50">
         <v>2.156306127764593</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50">
         <v>3.324369555559739</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50">
         <v>1.0790900128388869</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" t="s">
         <v>32</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="F50" t="s">
         <v>265</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="G50" t="s">
         <v>266</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="H50" t="s">
         <v>330</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="I50" t="s">
         <v>331</v>
       </c>
-      <c r="J50" s="3" t="s">
+      <c r="J50" t="s">
         <v>377</v>
       </c>
-      <c r="K50" s="3" t="s">
+      <c r="K50" t="s">
         <v>266</v>
       </c>
-      <c r="L50" s="6" t="s">
+      <c r="L50" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="M50" s="6" t="s">
+      <c r="M50" s="2" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A51" s="3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51">
         <v>100000808</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51">
         <v>3.0245575960911069</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51">
         <v>5.5322571174616639</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51">
         <v>1.150329918516255</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E51" t="s">
         <v>20</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="F51" t="s">
         <v>50</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="G51" t="s">
         <v>172</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="H51" t="s">
         <v>309</v>
       </c>
-      <c r="I51" s="3" t="s">
+      <c r="I51" t="s">
         <v>310</v>
       </c>
-      <c r="J51" s="3" t="s">
+      <c r="J51" t="s">
         <v>359</v>
       </c>
-      <c r="K51" s="3" t="s">
+      <c r="K51" t="s">
         <v>172</v>
       </c>
-      <c r="L51" s="6" t="s">
+      <c r="L51" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="M51" s="6" t="s">
+      <c r="M51" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A52" s="3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52">
         <v>194</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52">
         <v>3.944809036235672</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52">
         <v>8.2769590632154575</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52">
         <v>1.1925393778268909</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" t="s">
         <v>20</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="F52" t="s">
         <v>50</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="G52" t="s">
         <v>154</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="H52" t="s">
         <v>309</v>
       </c>
-      <c r="I52" s="3" t="s">
+      <c r="I52" t="s">
         <v>310</v>
       </c>
-      <c r="J52" s="3" t="s">
+      <c r="J52" t="s">
         <v>356</v>
       </c>
-      <c r="K52" s="3" t="s">
+      <c r="K52" t="s">
         <v>154</v>
       </c>
-      <c r="L52" s="6" t="s">
+      <c r="L52" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="M52" s="6" t="s">
+      <c r="M52" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A53" s="3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53">
         <v>999916580</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53">
         <v>2.0789732606039308</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53">
         <v>3.149437918669137</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53">
         <v>1.2526702786867729</v>
       </c>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A54" s="3">
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54">
         <v>240</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54">
         <v>2.9600184523829292</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54">
         <v>5.35393975567598</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54">
         <v>1.2654434985392271</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" t="s">
         <v>20</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="F54" t="s">
         <v>179</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="G54" t="s">
         <v>180</v>
       </c>
-      <c r="H54" s="3" t="s">
+      <c r="H54" t="s">
         <v>314</v>
       </c>
-      <c r="I54" s="3" t="s">
+      <c r="I54" t="s">
         <v>305</v>
       </c>
-      <c r="J54" s="3" t="s">
+      <c r="J54" t="s">
         <v>305</v>
       </c>
-      <c r="K54" s="3" t="s">
+      <c r="K54" t="s">
         <v>181</v>
       </c>
-      <c r="L54" s="6" t="s">
+      <c r="L54" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="M54" s="6" t="s">
+      <c r="M54" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A55" s="3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55">
         <v>100001777</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55">
         <v>2.693176219371904</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55">
         <v>4.6395774920229362</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55">
         <v>1.2986630791216831</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E55" t="s">
         <v>32</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="F55" t="s">
         <v>145</v>
       </c>
-      <c r="G55" s="3" t="s">
+      <c r="G55" t="s">
         <v>192</v>
       </c>
-      <c r="H55" s="3" t="s">
+      <c r="H55" t="s">
         <v>311</v>
       </c>
-      <c r="I55" s="3" t="s">
+      <c r="I55" t="s">
         <v>339</v>
       </c>
-      <c r="J55" s="3" t="s">
+      <c r="J55" t="s">
         <v>364</v>
       </c>
-      <c r="K55" s="3" t="s">
+      <c r="K55" t="s">
         <v>192</v>
       </c>
-      <c r="L55" s="6" t="s">
+      <c r="L55" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A56" s="3">
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56">
         <v>100001254</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56">
         <v>3.283075615563551</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56">
         <v>6.2667489245401997</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56">
         <v>1.4083577305768189</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E56" t="s">
         <v>20</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="F56" t="s">
         <v>71</v>
       </c>
-      <c r="G56" s="3" t="s">
+      <c r="G56" t="s">
         <v>165</v>
       </c>
-      <c r="H56" s="3" t="s">
+      <c r="H56" t="s">
         <v>309</v>
       </c>
-      <c r="I56" s="3" t="s">
+      <c r="I56" t="s">
         <v>310</v>
       </c>
-      <c r="J56" s="3" t="s">
+      <c r="J56" t="s">
         <v>315</v>
       </c>
-      <c r="K56" s="3" t="s">
+      <c r="K56" t="s">
         <v>165</v>
       </c>
-      <c r="L56" s="6" t="s">
+      <c r="L56" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="M56" s="6" t="s">
+      <c r="M56" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A57" s="3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57">
         <v>100001256</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57">
         <v>3.5933672345604331</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57">
         <v>7.1878406643907287</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57">
         <v>1.6141842736669909</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E57" t="s">
         <v>20</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="F57" t="s">
         <v>121</v>
       </c>
-      <c r="G57" s="3" t="s">
+      <c r="G57" t="s">
         <v>157</v>
       </c>
-      <c r="H57" s="3" t="s">
+      <c r="H57" t="s">
         <v>309</v>
       </c>
-      <c r="I57" s="3" t="s">
+      <c r="I57" t="s">
         <v>310</v>
       </c>
-      <c r="J57" s="3" t="s">
+      <c r="J57" t="s">
         <v>347</v>
       </c>
-      <c r="K57" s="3" t="s">
+      <c r="K57" t="s">
         <v>157</v>
       </c>
-      <c r="L57" s="6" t="s">
+      <c r="L57" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="M57" s="6" t="s">
+      <c r="M57" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A58" s="3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58">
         <v>100002544</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58">
         <v>3.043900274242672</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58">
         <v>5.5861037300898504</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58">
         <v>1.6716183408204039</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E58" t="s">
         <v>20</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F58" t="s">
         <v>168</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="G58" t="s">
         <v>169</v>
       </c>
-      <c r="H58" s="3" t="s">
+      <c r="H58" t="s">
         <v>357</v>
       </c>
-      <c r="I58" s="3" t="s">
+      <c r="I58" t="s">
         <v>310</v>
       </c>
-      <c r="J58" s="3" t="s">
+      <c r="J58" t="s">
         <v>358</v>
       </c>
-      <c r="K58" s="3" t="s">
+      <c r="K58" t="s">
         <v>169</v>
       </c>
-      <c r="L58" s="6" t="s">
+      <c r="L58" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="M58" s="6" t="s">
+      <c r="M58" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.75">
-      <c r="A68" s="3">
-        <v>999916580</v>
-      </c>
-      <c r="B68" s="3">
-        <v>2.0789732606039308</v>
-      </c>
-      <c r="C68" s="3">
-        <v>3.149437918669137</v>
-      </c>
-      <c r="D68" s="3">
-        <v>1.2526702786867729</v>
-      </c>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-      <c r="M68" s="3"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A68:M68">
